--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studio\personal\projects\spreadsheets\gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323603FF-9D32-4951-B53A-83EAFAF03D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D38535A-5DAD-4B1E-90C8-579E5501A37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="600" windowWidth="16584" windowHeight="12360" activeTab="1" xr2:uid="{DA0CE161-BB7D-4A4B-BBD7-0003F46AF39A}"/>
+    <workbookView xWindow="768" yWindow="600" windowWidth="16584" windowHeight="12360" activeTab="2" xr2:uid="{DA0CE161-BB7D-4A4B-BBD7-0003F46AF39A}"/>
   </bookViews>
   <sheets>
     <sheet name="user guide" sheetId="8" r:id="rId1"/>
@@ -635,7 +635,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\ dd"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,6 +742,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -866,7 +873,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -955,6 +962,20 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1007,7 +1028,7 @@
     <cellStyle name="Normal 2" xfId="3" xr:uid="{587E0799-20F4-4AA7-A799-F7C7A77F13C7}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="200">
     <dxf>
       <fill>
         <patternFill>
@@ -1018,21 +1039,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFA7FBFF"/>
+          <bgColor rgb="FFFFD69F"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD69F"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1047,18 +1061,24 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+          <bgColor rgb="FFA7FBFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA7FBFF"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFD69F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+          <bgColor rgb="FFA7FBFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -1068,6 +1088,9 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFD69F"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFD69F"/>
@@ -1075,6 +1098,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
         <patternFill patternType="darkUp">
           <fgColor rgb="FFFF0000"/>
@@ -1083,9 +1109,42 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD69F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDAE9F8"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAE9F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD86DCD"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD86DCD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1093,13 +1152,6 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7FBFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1121,34 +1173,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7FBFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD69F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFD69F"/>
         </patternFill>
       </fill>
@@ -1192,6 +1216,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFA7FBFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -1200,20 +1231,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFD69F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD69F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1255,6 +1272,62 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7FBFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="darkUp">
           <fgColor rgb="FFFF0000"/>
           <bgColor auto="1"/>
@@ -1264,28 +1337,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFA7FBFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD69F"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1333,13 +1385,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7FBFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="2" tint="-0.499984740745262"/>
       </font>
@@ -1410,6 +1455,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFA7FBFF"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFA7FBFF"/>
@@ -1417,6 +1465,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -1426,6 +1477,9 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFD69F"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFD69F"/>
@@ -1433,6 +1487,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
         <patternFill patternType="darkUp">
           <fgColor rgb="FFFF0000"/>
@@ -1441,13 +1498,19 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD69F"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFD69F"/>
@@ -1455,16 +1518,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFDAE9F8"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+          <bgColor rgb="FFDAE9F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD86DCD"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
+          <bgColor rgb="FFD86DCD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1701,6 +1770,784 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAE9F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7FBFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDAE9F8"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA7FBFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7FBFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD86DCD"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD86DCD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD69F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD69F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7FBFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7FBFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7FBFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7FBFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7FBFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7FBFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAE9F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7FBFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDAE9F8"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA7FBFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7FBFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD86DCD"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD86DCD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD69F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD69F"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7FBFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7FBFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7FBFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7FBFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7FBFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD69F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7FBFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1742,16 +2589,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFD69F"/>
+      <color rgb="FFD9D9D9"/>
       <color rgb="FFDAE9F8"/>
       <color rgb="FFA7FBFF"/>
+      <color rgb="FFD86DCD"/>
       <color rgb="FF56BA70"/>
       <color rgb="FFEDF7EF"/>
       <color rgb="FF6AC281"/>
       <color rgb="FFE4F4E8"/>
       <color rgb="FF8BCF9D"/>
-      <color rgb="FFFFD69F"/>
-      <color rgb="FFC6FCD3"/>
-      <color rgb="FFB7FAFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2157,48 +3004,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="2:10" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="2:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="36" t="s">
+      <c r="G4" s="46"/>
+      <c r="H4" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="37"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="2:10" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
@@ -2225,17 +3072,17 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
     </row>
     <row r="8" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -2261,8 +3108,8 @@
   </sheetPr>
   <dimension ref="A2:BP40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2284,11 +3131,11 @@
       <c r="C2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="47">
         <v>45689</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.3">
@@ -2296,248 +3143,251 @@
       <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="48">
         <v>45961</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
     </row>
-    <row r="4" spans="1:68" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K4" s="33" cm="1">
+    <row r="4" spans="1:68" s="36" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38" cm="1">
         <f t="array" ref="K4:AW4">_xlfn.SEQUENCE(1, _xlfn.ISOWEEKNUM(D3)-_xlfn.ISOWEEKNUM(D2), _xlfn.ISOWEEKNUM(D2), 1)</f>
         <v>5</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="38">
         <v>6</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="38">
         <v>7</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="38">
         <v>8</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="38">
         <v>9</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="38">
         <v>10</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="Q4" s="38">
         <v>11</v>
       </c>
-      <c r="R4" s="33">
+      <c r="R4" s="38">
         <v>12</v>
       </c>
-      <c r="S4" s="33">
+      <c r="S4" s="38">
         <v>13</v>
       </c>
-      <c r="T4" s="33">
+      <c r="T4" s="38">
         <v>14</v>
       </c>
-      <c r="U4" s="33">
+      <c r="U4" s="38">
         <v>15</v>
       </c>
-      <c r="V4" s="33">
+      <c r="V4" s="38">
         <v>16</v>
       </c>
-      <c r="W4" s="33">
+      <c r="W4" s="38">
         <v>17</v>
       </c>
-      <c r="X4" s="33">
+      <c r="X4" s="38">
         <v>18</v>
       </c>
-      <c r="Y4" s="33">
+      <c r="Y4" s="38">
         <v>19</v>
       </c>
-      <c r="Z4" s="33">
+      <c r="Z4" s="38">
         <v>20</v>
       </c>
-      <c r="AA4" s="33">
+      <c r="AA4" s="38">
         <v>21</v>
       </c>
-      <c r="AB4" s="33">
+      <c r="AB4" s="38">
         <v>22</v>
       </c>
-      <c r="AC4" s="33">
+      <c r="AC4" s="38">
         <v>23</v>
       </c>
-      <c r="AD4" s="33">
+      <c r="AD4" s="38">
         <v>24</v>
       </c>
-      <c r="AE4" s="33">
+      <c r="AE4" s="38">
         <v>25</v>
       </c>
-      <c r="AF4" s="33">
+      <c r="AF4" s="38">
         <v>26</v>
       </c>
-      <c r="AG4" s="33">
+      <c r="AG4" s="38">
         <v>27</v>
       </c>
-      <c r="AH4" s="33">
+      <c r="AH4" s="38">
         <v>28</v>
       </c>
-      <c r="AI4" s="33">
+      <c r="AI4" s="38">
         <v>29</v>
       </c>
-      <c r="AJ4" s="33">
+      <c r="AJ4" s="38">
         <v>30</v>
       </c>
-      <c r="AK4" s="33">
+      <c r="AK4" s="38">
         <v>31</v>
       </c>
-      <c r="AL4" s="33">
+      <c r="AL4" s="38">
         <v>32</v>
       </c>
-      <c r="AM4" s="33">
+      <c r="AM4" s="38">
         <v>33</v>
       </c>
-      <c r="AN4" s="33">
+      <c r="AN4" s="38">
         <v>34</v>
       </c>
-      <c r="AO4" s="33">
+      <c r="AO4" s="38">
         <v>35</v>
       </c>
-      <c r="AP4" s="33">
+      <c r="AP4" s="38">
         <v>36</v>
       </c>
-      <c r="AQ4" s="33">
+      <c r="AQ4" s="38">
         <v>37</v>
       </c>
-      <c r="AR4" s="33">
+      <c r="AR4" s="38">
         <v>38</v>
       </c>
-      <c r="AS4" s="33">
+      <c r="AS4" s="38">
         <v>39</v>
       </c>
-      <c r="AT4" s="33">
+      <c r="AT4" s="38">
         <v>40</v>
       </c>
-      <c r="AU4" s="33">
+      <c r="AU4" s="38">
         <v>41</v>
       </c>
-      <c r="AV4" s="33">
+      <c r="AV4" s="38">
         <v>42</v>
       </c>
-      <c r="AW4" s="33">
+      <c r="AW4" s="38">
         <v>43</v>
       </c>
-      <c r="AX4" s="33"/>
-      <c r="AY4" s="33"/>
-      <c r="AZ4" s="33"/>
-      <c r="BA4" s="33"/>
-      <c r="BB4" s="33"/>
-      <c r="BC4" s="33"/>
-      <c r="BD4" s="33"/>
-      <c r="BE4" s="33"/>
-      <c r="BF4" s="33"/>
-      <c r="BG4" s="33"/>
-      <c r="BH4" s="33"/>
-      <c r="BI4" s="33"/>
-      <c r="BJ4" s="33"/>
-      <c r="BK4" s="33"/>
-      <c r="BL4" s="33"/>
-      <c r="BM4" s="33"/>
-      <c r="BN4" s="33"/>
-      <c r="BO4" s="33"/>
-      <c r="BP4" s="33"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="38"/>
+      <c r="BK4" s="38"/>
+      <c r="BL4" s="38"/>
+      <c r="BM4" s="38"/>
+      <c r="BN4" s="38"/>
+      <c r="BO4" s="38"/>
+      <c r="BP4" s="38"/>
     </row>
     <row r="5" spans="1:68" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="44"/>
-      <c r="AL5" s="44"/>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="44"/>
-      <c r="AO5" s="44"/>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="44"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="44"/>
-      <c r="AU5" s="44"/>
-      <c r="AV5" s="44"/>
-      <c r="AW5" s="44"/>
-      <c r="AX5" s="44"/>
-      <c r="AY5" s="44"/>
-      <c r="AZ5" s="44"/>
-      <c r="BA5" s="44"/>
-      <c r="BB5" s="44"/>
-      <c r="BC5" s="44"/>
-      <c r="BD5" s="44"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="44"/>
-      <c r="BG5" s="44"/>
-      <c r="BH5" s="44"/>
-      <c r="BI5" s="44"/>
-      <c r="BJ5" s="44"/>
-      <c r="BK5" s="44"/>
-      <c r="BL5" s="44"/>
-      <c r="BM5" s="44"/>
-      <c r="BN5" s="44"/>
-      <c r="BO5" s="44"/>
-      <c r="BP5" s="44"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="50"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+      <c r="BK5" s="50"/>
+      <c r="BL5" s="50"/>
+      <c r="BM5" s="50"/>
+      <c r="BN5" s="50"/>
+      <c r="BO5" s="50"/>
+      <c r="BP5" s="50"/>
     </row>
     <row r="6" spans="1:68" s="34" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
       <c r="K6" s="1" t="str">
         <f>UPPER(IF(ISBLANK(K4), "", _xlfn.LET(
     _xlpm.date_of_previous_week, DATE(YEAR(D2),1,1) - WEEKDAY(DATE(YEAR(D2),1,1)) + 7*J4,
@@ -2780,7 +3630,7 @@
       </c>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="25"/>
       <c r="C7" s="26" t="s">
         <v>55</v>
@@ -3051,7 +3901,7 @@
       </c>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="25">
         <v>1</v>
       </c>
@@ -3322,7 +4172,7 @@
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="25" t="s">
         <v>21</v>
       </c>
@@ -3582,7 +4432,7 @@
       </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="25" t="s">
         <v>22</v>
       </c>
@@ -3842,7 +4692,7 @@
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="25">
         <v>2</v>
       </c>
@@ -4122,7 +4972,7 @@
       </c>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="25" t="s">
         <v>23</v>
       </c>
@@ -4391,7 +5241,7 @@
       </c>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="25" t="s">
         <v>24</v>
       </c>
@@ -4653,7 +5503,7 @@
       </c>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="25" t="s">
         <v>25</v>
       </c>
@@ -4913,7 +5763,7 @@
       </c>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="25" t="s">
         <v>26</v>
       </c>
@@ -5174,7 +6024,7 @@
       </c>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="25" t="s">
         <v>27</v>
       </c>
@@ -5435,7 +6285,7 @@
       </c>
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="25" t="s">
         <v>28</v>
       </c>
@@ -5696,7 +6546,7 @@
       </c>
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="25" t="s">
         <v>29</v>
       </c>
@@ -5957,7 +6807,7 @@
       </c>
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="25" t="s">
         <v>30</v>
       </c>
@@ -6218,7 +7068,7 @@
       </c>
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="25" t="s">
         <v>31</v>
       </c>
@@ -6479,7 +7329,7 @@
       </c>
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="25" t="s">
         <v>32</v>
       </c>
@@ -6740,7 +7590,7 @@
       </c>
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="25">
         <v>3</v>
       </c>
@@ -7001,7 +7851,7 @@
       </c>
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="25" t="s">
         <v>34</v>
       </c>
@@ -7261,7 +8111,7 @@
       </c>
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A24" s="49"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="25" t="s">
         <v>35</v>
       </c>
@@ -7521,7 +8371,7 @@
       </c>
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A25" s="49"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="25" t="s">
         <v>36</v>
       </c>
@@ -7781,7 +8631,7 @@
       </c>
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="25">
         <v>4</v>
       </c>
@@ -8042,7 +8892,7 @@
       </c>
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A27" s="49"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="25" t="s">
         <v>37</v>
       </c>
@@ -8311,7 +9161,7 @@
       </c>
     </row>
     <row r="28" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A28" s="49"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="25" t="s">
         <v>38</v>
       </c>
@@ -8583,7 +9433,7 @@
       </c>
     </row>
     <row r="29" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="25" t="s">
         <v>39</v>
       </c>
@@ -8853,7 +9703,7 @@
       </c>
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="25" t="s">
         <v>40</v>
       </c>
@@ -9132,7 +9982,7 @@
       </c>
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="25" t="s">
         <v>41</v>
       </c>
@@ -9393,7 +10243,7 @@
       </c>
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="25" t="s">
         <v>42</v>
       </c>
@@ -9654,7 +10504,7 @@
       </c>
     </row>
     <row r="33" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="25"/>
       <c r="C33" s="26" t="s">
         <v>43</v>
@@ -9907,18 +10757,18 @@
       </c>
     </row>
     <row r="34" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="25">
         <v>5</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="50">
+      <c r="D34" s="56">
         <f>J34-I34</f>
         <v>48</v>
       </c>
-      <c r="E34" s="50"/>
+      <c r="E34" s="56"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="27" t="str">
@@ -10165,18 +11015,18 @@
       </c>
     </row>
     <row r="35" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A35" s="49"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="25">
         <v>6</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="50">
+      <c r="D35" s="56">
         <f t="shared" ref="D35:D37" si="15">J35-I35</f>
         <v>21</v>
       </c>
-      <c r="E35" s="50"/>
+      <c r="E35" s="56"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
       <c r="H35" s="27" t="str">
@@ -10423,18 +11273,18 @@
       </c>
     </row>
     <row r="36" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A36" s="49"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="25">
         <v>7</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="50">
+      <c r="D36" s="56">
         <f t="shared" si="15"/>
         <v>14</v>
       </c>
-      <c r="E36" s="50"/>
+      <c r="E36" s="56"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
       <c r="H36" s="27" t="str">
@@ -10681,18 +11531,18 @@
       </c>
     </row>
     <row r="37" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="25">
         <v>8</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="50">
+      <c r="D37" s="56">
         <f t="shared" si="15"/>
         <v>48</v>
       </c>
-      <c r="E37" s="50"/>
+      <c r="E37" s="56"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
       <c r="H37" s="27" t="str">
@@ -10939,7 +11789,7 @@
       </c>
     </row>
     <row r="38" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="49"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26" t="s">
         <v>57</v>
@@ -11185,7 +12035,7 @@
       </c>
     </row>
     <row r="39" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="49"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="26"/>
       <c r="C39" s="26" t="s">
         <v>58</v>
@@ -11440,7 +12290,7 @@
       </c>
     </row>
     <row r="40" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="49"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26" t="s">
         <v>56</v>
@@ -11841,28 +12691,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:BP37 K38:BO40">
-    <cfRule type="expression" dxfId="62" priority="201">
+    <cfRule type="expression" dxfId="62" priority="23">
       <formula>AND(K7=2, #REF!="IAC")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="203">
+    <cfRule type="expression" dxfId="61" priority="202">
       <formula>K7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="204">
+    <cfRule type="expression" dxfId="60" priority="203">
       <formula>K7=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="205">
+    <cfRule type="expression" dxfId="59" priority="204">
       <formula>K7=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="206">
+    <cfRule type="expression" dxfId="58" priority="205">
       <formula>K7=-1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="215">
+    <cfRule type="expression" dxfId="57" priority="206">
       <formula>AND(K7=2, #REF!="JGCD")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="23">
+    <cfRule type="expression" dxfId="56" priority="215">
       <formula>NOT(K$6="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="202">
+    <cfRule type="expression" dxfId="55" priority="201">
       <formula>AND(NOT(ISBLANK(K7)), K7=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11914,8 +12764,8 @@
   </sheetPr>
   <dimension ref="A2:BP22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BS18" sqref="BS18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11936,11 +12786,11 @@
       <c r="C2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="47">
         <v>45689</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.3">
@@ -11948,248 +12798,251 @@
       <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="48">
         <v>45961</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
     </row>
-    <row r="4" spans="1:68" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K4" s="8" cm="1">
+    <row r="4" spans="1:68" s="39" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41" cm="1">
         <f t="array" ref="K4:AW4">_xlfn.SEQUENCE(1, _xlfn.ISOWEEKNUM(D3)-_xlfn.ISOWEEKNUM(D2), _xlfn.ISOWEEKNUM(D2), 1)</f>
         <v>5</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="41">
         <v>6</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="41">
         <v>7</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="41">
         <v>8</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="41">
         <v>9</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="41">
         <v>10</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="41">
         <v>11</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="41">
         <v>12</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="41">
         <v>13</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="41">
         <v>14</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="41">
         <v>15</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="41">
         <v>16</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="41">
         <v>17</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="41">
         <v>18</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="41">
         <v>19</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="41">
         <v>20</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AA4" s="41">
         <v>21</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="41">
         <v>22</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC4" s="41">
         <v>23</v>
       </c>
-      <c r="AD4" s="8">
+      <c r="AD4" s="41">
         <v>24</v>
       </c>
-      <c r="AE4" s="8">
+      <c r="AE4" s="41">
         <v>25</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AF4" s="41">
         <v>26</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AG4" s="41">
         <v>27</v>
       </c>
-      <c r="AH4" s="8">
+      <c r="AH4" s="41">
         <v>28</v>
       </c>
-      <c r="AI4" s="8">
+      <c r="AI4" s="41">
         <v>29</v>
       </c>
-      <c r="AJ4" s="8">
+      <c r="AJ4" s="41">
         <v>30</v>
       </c>
-      <c r="AK4" s="8">
+      <c r="AK4" s="41">
         <v>31</v>
       </c>
-      <c r="AL4" s="8">
+      <c r="AL4" s="41">
         <v>32</v>
       </c>
-      <c r="AM4" s="8">
+      <c r="AM4" s="41">
         <v>33</v>
       </c>
-      <c r="AN4" s="8">
+      <c r="AN4" s="41">
         <v>34</v>
       </c>
-      <c r="AO4" s="8">
+      <c r="AO4" s="41">
         <v>35</v>
       </c>
-      <c r="AP4" s="8">
+      <c r="AP4" s="41">
         <v>36</v>
       </c>
-      <c r="AQ4" s="8">
+      <c r="AQ4" s="41">
         <v>37</v>
       </c>
-      <c r="AR4" s="8">
+      <c r="AR4" s="41">
         <v>38</v>
       </c>
-      <c r="AS4" s="8">
+      <c r="AS4" s="41">
         <v>39</v>
       </c>
-      <c r="AT4" s="8">
+      <c r="AT4" s="41">
         <v>40</v>
       </c>
-      <c r="AU4" s="8">
+      <c r="AU4" s="41">
         <v>41</v>
       </c>
-      <c r="AV4" s="8">
+      <c r="AV4" s="41">
         <v>42</v>
       </c>
-      <c r="AW4" s="8">
+      <c r="AW4" s="41">
         <v>43</v>
       </c>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="8"/>
-      <c r="BH4" s="8"/>
-      <c r="BI4" s="8"/>
-      <c r="BJ4" s="8"/>
-      <c r="BK4" s="8"/>
-      <c r="BL4" s="8"/>
-      <c r="BM4" s="8"/>
-      <c r="BN4" s="8"/>
-      <c r="BO4" s="8"/>
-      <c r="BP4" s="8"/>
+      <c r="AX4" s="41"/>
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41"/>
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="41"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="41"/>
+      <c r="BJ4" s="41"/>
+      <c r="BK4" s="41"/>
+      <c r="BL4" s="41"/>
+      <c r="BM4" s="41"/>
+      <c r="BN4" s="41"/>
+      <c r="BO4" s="41"/>
+      <c r="BP4" s="41"/>
     </row>
     <row r="5" spans="1:68" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="44"/>
-      <c r="AL5" s="44"/>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="44"/>
-      <c r="AO5" s="44"/>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="44"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="44"/>
-      <c r="AU5" s="44"/>
-      <c r="AV5" s="44"/>
-      <c r="AW5" s="44"/>
-      <c r="AX5" s="44"/>
-      <c r="AY5" s="44"/>
-      <c r="AZ5" s="44"/>
-      <c r="BA5" s="44"/>
-      <c r="BB5" s="44"/>
-      <c r="BC5" s="44"/>
-      <c r="BD5" s="44"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="44"/>
-      <c r="BG5" s="44"/>
-      <c r="BH5" s="44"/>
-      <c r="BI5" s="44"/>
-      <c r="BJ5" s="44"/>
-      <c r="BK5" s="44"/>
-      <c r="BL5" s="44"/>
-      <c r="BM5" s="44"/>
-      <c r="BN5" s="44"/>
-      <c r="BO5" s="44"/>
-      <c r="BP5" s="44"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="50"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+      <c r="BK5" s="50"/>
+      <c r="BL5" s="50"/>
+      <c r="BM5" s="50"/>
+      <c r="BN5" s="50"/>
+      <c r="BO5" s="50"/>
+      <c r="BP5" s="50"/>
     </row>
     <row r="6" spans="1:68" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
       <c r="K6" s="1" t="str">
         <f>UPPER(IF(ISBLANK(K4), "", _xlfn.LET(
     _xlpm.date_of_previous_week, DATE(YEAR(D2),1,1) - WEEKDAY(DATE(YEAR(D2),1,1)) + 7*J4,
@@ -12432,7 +13285,7 @@
       </c>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15" t="s">
         <v>63</v>
@@ -12717,7 +13570,7 @@
       </c>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="12">
         <v>1</v>
       </c>
@@ -12999,7 +13852,7 @@
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
@@ -13268,7 +14121,7 @@
       </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
@@ -13531,7 +14384,7 @@
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="12" t="s">
         <v>82</v>
       </c>
@@ -13818,7 +14671,7 @@
       </c>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="12" t="s">
         <v>83</v>
       </c>
@@ -14092,7 +14945,7 @@
       </c>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="12">
         <v>2</v>
       </c>
@@ -14355,7 +15208,7 @@
       </c>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
@@ -14616,7 +15469,7 @@
       </c>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="12"/>
       <c r="C15" s="15" t="s">
         <v>69</v>
@@ -14871,7 +15724,7 @@
       </c>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="12">
         <v>3</v>
       </c>
@@ -15132,7 +15985,7 @@
       </c>
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="12">
         <v>4</v>
       </c>
@@ -15391,7 +16244,7 @@
       </c>
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="12">
         <v>5</v>
       </c>
@@ -15650,7 +16503,7 @@
       </c>
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="12">
         <v>6</v>
       </c>
@@ -16691,16 +17544,16 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B7:J22">
-    <cfRule type="expression" dxfId="49" priority="1">
+    <cfRule type="expression" dxfId="199" priority="1">
       <formula>ISBLANK($B7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="2">
+    <cfRule type="expression" dxfId="198" priority="2">
       <formula>SUM(LEN($B7)-LEN(SUBSTITUTE($B7,".","")))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="3">
+    <cfRule type="expression" dxfId="197" priority="3">
       <formula>SUM(LEN($B7)-LEN(SUBSTITUTE($B7,".","")))=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="4">
+    <cfRule type="expression" dxfId="196" priority="4">
       <formula>SUM(LEN($B7)-LEN(SUBSTITUTE($B7,".","")))=2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16719,154 +17572,154 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="45" priority="19">
+    <cfRule type="expression" dxfId="195" priority="19">
       <formula>AND(NOT(ISBLANK(K5)), K5=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="20">
+    <cfRule type="expression" dxfId="194" priority="20">
       <formula>K5=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="21">
+    <cfRule type="expression" dxfId="193" priority="21">
       <formula>K5=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="22">
+    <cfRule type="expression" dxfId="192" priority="22">
       <formula>K5=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="23">
+    <cfRule type="expression" dxfId="191" priority="23">
       <formula>K5=-1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="17">
+    <cfRule type="expression" dxfId="190" priority="17">
       <formula>AND(K5=2, $A21="JGCD")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="18">
+    <cfRule type="expression" dxfId="189" priority="18">
       <formula>AND(K5=2, $A21="IAC")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23:AX1048444 K1048479:AX1048576">
-    <cfRule type="expression" dxfId="38" priority="14">
+    <cfRule type="expression" dxfId="188" priority="14">
       <formula>K23=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="12">
+    <cfRule type="expression" dxfId="187" priority="12">
       <formula>AND(NOT(ISBLANK(K23)), K23=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="13">
+    <cfRule type="expression" dxfId="186" priority="13">
       <formula>K23=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="15">
+    <cfRule type="expression" dxfId="185" priority="15">
       <formula>K23=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="16">
+    <cfRule type="expression" dxfId="184" priority="16">
       <formula>K23=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1048445:AX1048476">
-    <cfRule type="expression" dxfId="33" priority="322">
+    <cfRule type="expression" dxfId="183" priority="322">
       <formula>K1048445=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="323">
+    <cfRule type="expression" dxfId="182" priority="323">
       <formula>K1048445=-1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="317">
+    <cfRule type="expression" dxfId="181" priority="317">
       <formula>AND(K1048445=2, $A3="JGCD")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="318">
+    <cfRule type="expression" dxfId="180" priority="318">
       <formula>AND(K1048445=2, $A3="IAC")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="319">
+    <cfRule type="expression" dxfId="179" priority="319">
       <formula>AND(NOT(ISBLANK(K1048445)), K1048445=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="320">
+    <cfRule type="expression" dxfId="178" priority="320">
       <formula>K1048445=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="321">
+    <cfRule type="expression" dxfId="177" priority="321">
       <formula>K1048445=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1048477:AX1048478">
-    <cfRule type="expression" dxfId="26" priority="274">
+    <cfRule type="expression" dxfId="176" priority="274">
       <formula>AND(K1048477=2, #REF!="JGCD")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="275">
+    <cfRule type="expression" dxfId="175" priority="275">
       <formula>AND(K1048477=2, #REF!="IAC")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="277">
+    <cfRule type="expression" dxfId="174" priority="277">
       <formula>K1048477=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="278">
+    <cfRule type="expression" dxfId="173" priority="278">
       <formula>K1048477=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="279">
+    <cfRule type="expression" dxfId="172" priority="279">
       <formula>K1048477=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="280">
+    <cfRule type="expression" dxfId="171" priority="280">
       <formula>K1048477=-1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="276">
+    <cfRule type="expression" dxfId="170" priority="276">
       <formula>AND(NOT(ISBLANK(K1048477)), K1048477=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:BD3">
-    <cfRule type="expression" dxfId="19" priority="31">
+    <cfRule type="expression" dxfId="169" priority="31">
       <formula>AND(K3=2, $A20="JGCD")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="32">
+    <cfRule type="expression" dxfId="168" priority="32">
       <formula>AND(K3=2, $A20="IAC")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="35">
+    <cfRule type="expression" dxfId="167" priority="35">
       <formula>K3=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="33">
+    <cfRule type="expression" dxfId="166" priority="33">
       <formula>AND(NOT(ISBLANK(K3)), K3=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="34">
+    <cfRule type="expression" dxfId="165" priority="34">
       <formula>K3=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="36">
+    <cfRule type="expression" dxfId="164" priority="36">
       <formula>K3=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="37">
+    <cfRule type="expression" dxfId="163" priority="37">
       <formula>K3=-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BP6">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="162" priority="6">
       <formula>AND(NOT(ISBLANK(K6)), K6=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="161" priority="7">
       <formula>K6=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="160" priority="9">
       <formula>K6=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="159" priority="10">
       <formula>K6=-1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="158" priority="8">
       <formula>K6=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:BP22">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="157" priority="44">
       <formula>NOT(K$6="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="41">
+    <cfRule type="expression" dxfId="156" priority="40">
       <formula>K7=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="42">
+    <cfRule type="expression" dxfId="155" priority="41">
       <formula>K7=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="43">
+    <cfRule type="expression" dxfId="154" priority="42">
       <formula>K7=-1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="44">
+    <cfRule type="expression" dxfId="153" priority="43">
       <formula>AND(K7=2, #REF!="JGCD")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="38">
+    <cfRule type="expression" dxfId="152" priority="11">
       <formula>AND(K7=2, #REF!="IAC")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="39">
+    <cfRule type="expression" dxfId="151" priority="38">
       <formula>AND(NOT(ISBLANK(K7)), K7=0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="40">
+    <cfRule type="expression" dxfId="150" priority="39">
       <formula>K7=1</formula>
     </cfRule>
   </conditionalFormatting>
